--- a/Task Management Proj200.xlsx
+++ b/Task Management Proj200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk565\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiddy\git2\PROJ200-group-M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A4E15-CD35-4ABD-9A81-F45706FBEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D05DE-4189-45BD-8A53-34755DD168F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7ABB85AC-3273-4E27-90E3-431B503F143D}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{7ABB85AC-3273-4E27-90E3-431B503F143D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>not started</t>
   </si>
@@ -69,6 +66,51 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>build pcb</t>
+  </si>
+  <si>
+    <t>build proteus</t>
+  </si>
+  <si>
+    <t>build circuit</t>
+  </si>
+  <si>
+    <t>RC calculations</t>
+  </si>
+  <si>
+    <t>build pcb v2</t>
+  </si>
+  <si>
+    <t>wright up</t>
+  </si>
+  <si>
+    <t>build circuit v2</t>
+  </si>
+  <si>
+    <t>RC calculations v2</t>
+  </si>
+  <si>
+    <t>build proteus v2</t>
+  </si>
+  <si>
+    <t>mk &amp;OF: pr build</t>
+  </si>
+  <si>
+    <t>KF &amp; of: pr calcula</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>mk: task sheet</t>
+  </si>
+  <si>
+    <t>group formation</t>
   </si>
 </sst>
 </file>
@@ -133,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +185,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,98 +507,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F9FD2D-9604-401F-92E9-162D9278CFD4}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1">
+        <v>45201</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1">
+      <c r="K1" s="1">
         <v>45208</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1">
-        <v>45215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Management Proj200.xlsx
+++ b/Task Management Proj200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiddy\git2\PROJ200-group-M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D05DE-4189-45BD-8A53-34755DD168F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345C53A-5E2E-48FE-98CD-66A835E8D33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{7ABB85AC-3273-4E27-90E3-431B503F143D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7ABB85AC-3273-4E27-90E3-431B503F143D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>not started</t>
   </si>
@@ -47,9 +47,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>issue/waiting</t>
   </si>
   <si>
-    <t>person: stage</t>
-  </si>
-  <si>
     <t>testing</t>
   </si>
   <si>
@@ -96,21 +90,6 @@
   </si>
   <si>
     <t>build proteus v2</t>
-  </si>
-  <si>
-    <t>mk &amp;OF: pr build</t>
-  </si>
-  <si>
-    <t>KF &amp; of: pr calcula</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>mk: task sheet</t>
-  </si>
-  <si>
-    <t>group formation</t>
   </si>
 </sst>
 </file>
@@ -185,9 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +334,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,7 +487,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -531,113 +508,110 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
-        <v>45201</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45208</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1">
-        <v>45215</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
         <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
